--- a/Process/Tenacious Estimation - WBS.xlsx
+++ b/Process/Tenacious Estimation - WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHN-RAFI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{26F7CD7B-AE75-4682-AAE2-31C96CAAD7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AC2DB13-6553-4BC6-94D2-5A2DBAB236E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64543D16-51CC-4902-83F9-51B07D787E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{813F1D14-437E-4E9E-A964-A3190BB7C894}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="56">
   <si>
     <t>S.No</t>
   </si>
@@ -61,12 +61,12 @@
     <t>HTML Validations</t>
   </si>
   <si>
+    <t>Web API - Service Implementation</t>
+  </si>
+  <si>
     <t>Web API Integration</t>
   </si>
   <si>
-    <t>Web API - Service Implementation</t>
-  </si>
-  <si>
     <t>Swagger - API Documentation</t>
   </si>
   <si>
@@ -82,13 +82,13 @@
     <t>Unit Testing</t>
   </si>
   <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Code Merging</t>
+  </si>
+  <si>
     <t>Integration Testing</t>
-  </si>
-  <si>
-    <t>Forgot Password</t>
-  </si>
-  <si>
-    <t>Code Merging</t>
   </si>
   <si>
     <t>Compatibility testing</t>
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E587CB-A2A0-490F-98EB-8682FC24F931}">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:D444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D482" sqref="D482"/>
+    <sheetView tabSelected="1" topLeftCell="A333" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E352" sqref="E352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -600,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -624,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -632,12 +632,15 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
         <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -668,83 +671,80 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>0.5</v>
@@ -752,124 +752,127 @@
     </row>
     <row r="21" spans="1:4">
       <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>0.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
+      <c r="B22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
+      <c r="A25">
+        <v>3</v>
+      </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" t="s">
-        <v>18</v>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="C28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="C29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="C30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="C31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="C32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="C33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="C34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="C36" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -877,37 +880,31 @@
     </row>
     <row r="37" spans="1:4">
       <c r="C37" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -915,7 +912,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="C41" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -923,186 +920,186 @@
     </row>
     <row r="42" spans="1:4">
       <c r="C42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="C43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="C44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45">
-        <v>0.5</v>
+      <c r="B45" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46">
-        <v>0.5</v>
+      <c r="B46" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
+      <c r="B47" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:4">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="B49" t="s">
-        <v>17</v>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="B50" t="s">
-        <v>15</v>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="B51" t="s">
-        <v>18</v>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>21</v>
-      </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="C53" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="C54" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="C55" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="C56" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="C57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="C59" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="C60" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="C61" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="C62" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63">
-        <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>22</v>
-      </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="C64" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -1110,7 +1107,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="C65" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1118,100 +1115,92 @@
     </row>
     <row r="66" spans="1:4">
       <c r="C66" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="C67" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72">
         <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="C73" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="B74" t="s">
-        <v>17</v>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>1.5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="B75" t="s">
-        <v>15</v>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="B76" t="s">
-        <v>18</v>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>23</v>
-      </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="C78" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -1219,7 +1208,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="C79" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1227,31 +1216,37 @@
     </row>
     <row r="80" spans="1:4">
       <c r="C80" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="C81" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="C83" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -1259,23 +1254,23 @@
     </row>
     <row r="84" spans="1:4">
       <c r="C84" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D84">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="C85" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D85">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="C86" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -1283,170 +1278,170 @@
     </row>
     <row r="87" spans="1:4">
       <c r="C87" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88">
-        <v>8</v>
-      </c>
-      <c r="B88" t="s">
-        <v>24</v>
-      </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="C89" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="C90" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="C91" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="C92" t="s">
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15">
+      <c r="A95">
         <v>9</v>
       </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="C93" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="C94" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="B95" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D95">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="C96" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D96">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="C97" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="C98" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="B99" t="s">
-        <v>17</v>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="B100" t="s">
-        <v>15</v>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="B101" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15">
-      <c r="A102">
-        <v>9</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="C102" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="C103" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="C104" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15">
+      <c r="A105">
+        <v>10</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="C106" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="C107" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -1454,31 +1449,31 @@
     </row>
     <row r="108" spans="1:4">
       <c r="C108" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="C109" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="C110" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="C111" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -1486,69 +1481,60 @@
     </row>
     <row r="112" spans="1:4">
       <c r="C112" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15">
-      <c r="A113">
-        <v>10</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="C113" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="C114" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="C115" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
+      <c r="B115" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="C116" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116">
-        <v>2</v>
+      <c r="B116" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15">
+      <c r="A118">
+        <v>11</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="C119" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -1556,68 +1542,77 @@
     </row>
     <row r="120" spans="1:4">
       <c r="C120" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="C121" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D121">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="C122" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="C123" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="B124" t="s">
-        <v>17</v>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="B125" t="s">
-        <v>15</v>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="B126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15">
-      <c r="A127">
-        <v>11</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="C127" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15">
+      <c r="A128">
+        <v>12</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -1625,125 +1620,116 @@
     </row>
     <row r="129" spans="1:4">
       <c r="C129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="C130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="C131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="C132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="C133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="C134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D134">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="C135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D135">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="C136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="C137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15">
-      <c r="A138">
-        <v>12</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C138" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="B138" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="C139" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139">
-        <v>2</v>
+      <c r="B139" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="C140" t="s">
-        <v>7</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15">
+      <c r="A141">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="C142" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="C143" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -1751,7 +1737,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="C144" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -1759,23 +1745,23 @@
     </row>
     <row r="145" spans="1:4">
       <c r="C145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="C146" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D146">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="C147" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -1783,44 +1769,53 @@
     </row>
     <row r="148" spans="1:4">
       <c r="C148" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="B149" t="s">
-        <v>17</v>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="B150" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="B151" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15">
-      <c r="A152">
-        <v>13</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15">
+      <c r="A151">
+        <v>14</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="C152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="C153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -1828,93 +1823,84 @@
     </row>
     <row r="154" spans="1:4">
       <c r="C154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="C157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="C158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="C159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D159">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="C160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D160">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="C161" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161">
-        <v>2</v>
+      <c r="B161" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="C162" t="s">
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15">
+      <c r="A164">
         <v>15</v>
       </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15">
-      <c r="A163">
-        <v>14</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C163" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="B164" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D164">
         <v>2</v>
@@ -1922,23 +1908,23 @@
     </row>
     <row r="165" spans="1:4">
       <c r="C165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="C166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="C167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -1946,31 +1932,31 @@
     </row>
     <row r="168" spans="1:4">
       <c r="C168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="C169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="C170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D170">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="C171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D171">
         <v>0.5</v>
@@ -1978,44 +1964,53 @@
     </row>
     <row r="172" spans="1:4">
       <c r="C172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="C173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="B174" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15">
+      <c r="A174">
+        <v>16</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="B175" t="s">
-        <v>15</v>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="B176" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15">
-      <c r="A177">
-        <v>15</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="C177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D177">
         <v>4</v>
@@ -2023,15 +2018,15 @@
     </row>
     <row r="178" spans="1:4">
       <c r="C178" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="C179" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -2039,7 +2034,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="C180" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -2047,15 +2042,15 @@
     </row>
     <row r="181" spans="1:4">
       <c r="C181" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="C182" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -2063,234 +2058,223 @@
     </row>
     <row r="183" spans="1:4">
       <c r="C183" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D183">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="C184" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184">
-        <v>0.5</v>
+      <c r="B184" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="C185" t="s">
-        <v>13</v>
-      </c>
-      <c r="D185">
-        <v>0.5</v>
+      <c r="B185" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="C186" t="s">
-        <v>14</v>
-      </c>
-      <c r="D186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15">
+      <c r="A187">
+        <v>17</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C187" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15">
-      <c r="A188">
-        <v>16</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="C188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="C189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="C190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="C193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="C194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="C195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D195">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="C196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D196">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="C197" t="s">
-        <v>14</v>
-      </c>
-      <c r="D197">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15">
+      <c r="A198">
+        <v>18</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C198" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="B199" t="s">
-        <v>17</v>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="B200" t="s">
-        <v>15</v>
+      <c r="C200" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="B201" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15">
-      <c r="A202">
-        <v>17</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="C202" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="C203" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="C204" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="C205" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="C206" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D206">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="C207" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="C208" t="s">
-        <v>11</v>
-      </c>
-      <c r="D208">
-        <v>2</v>
+      <c r="B208" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="C209" t="s">
-        <v>12</v>
-      </c>
-      <c r="D209">
-        <v>0.5</v>
+      <c r="B209" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="C210" t="s">
-        <v>13</v>
-      </c>
-      <c r="D210">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="B210" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15">
+      <c r="A211">
+        <v>19</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C211" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D211">
         <v>2</v>
@@ -2298,53 +2282,47 @@
     </row>
     <row r="212" spans="1:4">
       <c r="C212" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="15">
-      <c r="A213">
-        <v>18</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="C213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D213">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="C214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="C215" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="C216" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="C217" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D217">
         <v>2</v>
@@ -2352,39 +2330,45 @@
     </row>
     <row r="218" spans="1:4">
       <c r="C218" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="C219" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="C220" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D220">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15">
+      <c r="A221">
+        <v>20</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C221" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D221">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="C222" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D222">
         <v>2</v>
@@ -2392,52 +2376,55 @@
     </row>
     <row r="223" spans="1:4">
       <c r="C223" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D223">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="B224" t="s">
-        <v>17</v>
+      <c r="C224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224">
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="B225" t="s">
-        <v>15</v>
+      <c r="C225" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225">
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:4">
-      <c r="B226" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="15">
-      <c r="A227">
-        <v>19</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="C227" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="C228" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="C229" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -2445,125 +2432,122 @@
     </row>
     <row r="230" spans="1:4">
       <c r="C230" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D230">
         <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="C231" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231">
-        <v>2</v>
+      <c r="B231" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="C232" t="s">
-        <v>10</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
+      <c r="B232" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="C233" t="s">
-        <v>11</v>
-      </c>
-      <c r="D233">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="B233" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15">
+      <c r="A234">
+        <v>21</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C234" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D234">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="C235" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D235">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="C236" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="C237" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="15">
-      <c r="A238">
-        <v>20</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="C238" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D238">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="C239" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="C240" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="C241" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="C242" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="C243" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15">
+      <c r="A244">
+        <v>22</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D244">
         <v>2</v>
@@ -2571,23 +2555,23 @@
     </row>
     <row r="245" spans="1:4">
       <c r="C245" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D245">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="C246" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D246">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="C247" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D247">
         <v>2</v>
@@ -2595,84 +2579,84 @@
     </row>
     <row r="248" spans="1:4">
       <c r="C248" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="B249" t="s">
-        <v>17</v>
+      <c r="C249" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="B250" t="s">
-        <v>15</v>
+      <c r="C250" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="B251" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="15">
-      <c r="A252">
-        <v>21</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C251" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="C252" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="C253" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D253">
         <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="C254" t="s">
-        <v>7</v>
-      </c>
-      <c r="D254">
-        <v>1</v>
+      <c r="B254" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="C255" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255">
-        <v>2</v>
+      <c r="B255" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="C256" t="s">
-        <v>9</v>
-      </c>
-      <c r="D256">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="B256" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15">
+      <c r="A257">
+        <v>23</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C257" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="C258" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D258">
         <v>2</v>
@@ -2680,61 +2664,55 @@
     </row>
     <row r="259" spans="1:4">
       <c r="C259" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D259">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="C260" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D260">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="C261" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D261">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="C262" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15">
-      <c r="A263">
-        <v>22</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="263" spans="1:4">
       <c r="C263" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D263">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="C264" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="C265" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -2742,15 +2720,21 @@
     </row>
     <row r="266" spans="1:4">
       <c r="C266" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D266">
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" ht="15">
+      <c r="A267">
+        <v>24</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C267" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D267">
         <v>2</v>
@@ -2758,100 +2742,100 @@
     </row>
     <row r="268" spans="1:4">
       <c r="C268" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="C269" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="C270" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D270">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="C271" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D271">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="C272" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="C273" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="B274" t="s">
+      <c r="C274" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="C275" t="s">
+        <v>13</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="C276" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="B277" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="B278" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="B275" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="B276" t="s">
+    <row r="279" spans="1:4">
+      <c r="B279" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15">
-      <c r="A277">
-        <v>23</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C277" t="s">
-        <v>5</v>
-      </c>
-      <c r="D277">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="C278" t="s">
-        <v>6</v>
-      </c>
-      <c r="D278">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="C279" t="s">
-        <v>7</v>
-      </c>
-      <c r="D279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" ht="15">
+      <c r="A280">
+        <v>25</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C280" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D280">
         <v>2</v>
@@ -2859,7 +2843,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="C281" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D281">
         <v>2</v>
@@ -2867,7 +2851,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="C282" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -2875,31 +2859,31 @@
     </row>
     <row r="283" spans="1:4">
       <c r="C283" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D283">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="C284" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D284">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="C285" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D285">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="C286" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D286">
         <v>2</v>
@@ -2907,45 +2891,45 @@
     </row>
     <row r="287" spans="1:4">
       <c r="C287" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="15">
-      <c r="A288">
-        <v>24</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="C288" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D288">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="C289" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D289">
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" ht="15">
+      <c r="A290">
+        <v>26</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C290" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="C291" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -2953,23 +2937,23 @@
     </row>
     <row r="292" spans="1:4">
       <c r="C292" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D292">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="C293" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="C294" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D294">
         <v>2</v>
@@ -2977,68 +2961,68 @@
     </row>
     <row r="295" spans="1:4">
       <c r="C295" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D295">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="C296" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D296">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="C297" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="C298" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="B299" t="s">
-        <v>17</v>
+      <c r="C299" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299">
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="B300" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="B301" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="B302" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15">
-      <c r="A302">
-        <v>25</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C302" t="s">
-        <v>5</v>
-      </c>
-      <c r="D302">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" ht="15">
+      <c r="A303">
+        <v>27</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D303">
         <v>2</v>
@@ -3046,55 +3030,55 @@
     </row>
     <row r="304" spans="1:4">
       <c r="C304" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="C305" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D305">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="C306" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D306">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="C307" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="C308" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D308">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="C309" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D309">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="C310" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D310">
         <v>0.5</v>
@@ -3102,32 +3086,32 @@
     </row>
     <row r="311" spans="1:4">
       <c r="C311" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D311">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="C312" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="15">
       <c r="A313">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
       </c>
       <c r="D313">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -3151,7 +3135,7 @@
         <v>8</v>
       </c>
       <c r="D316">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -3159,7 +3143,7 @@
         <v>9</v>
       </c>
       <c r="D317">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -3191,7 +3175,7 @@
         <v>13</v>
       </c>
       <c r="D321">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -3202,110 +3186,116 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" ht="15">
+      <c r="A323">
+        <v>29</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C323" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:4">
-      <c r="B324" t="s">
-        <v>17</v>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324">
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:4">
-      <c r="B325" t="s">
-        <v>15</v>
+      <c r="C325" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:4">
-      <c r="B326" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="15">
-      <c r="A327">
-        <v>27</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C326" t="s">
+        <v>8</v>
+      </c>
+      <c r="D326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="C327" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D327">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="C328" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="C329" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D329">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="C330" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D330">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="C331" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="C332" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:4">
-      <c r="C333" t="s">
-        <v>11</v>
-      </c>
-      <c r="D333">
-        <v>2</v>
+      <c r="B333" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="334" spans="1:4">
-      <c r="C334" t="s">
-        <v>12</v>
-      </c>
-      <c r="D334">
-        <v>0.5</v>
+      <c r="B334" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="335" spans="1:4">
-      <c r="C335" t="s">
-        <v>13</v>
-      </c>
-      <c r="D335">
-        <v>0.5</v>
+      <c r="B335" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="336" spans="1:4">
+      <c r="A336">
+        <v>30</v>
+      </c>
+      <c r="B336" t="s">
+        <v>46</v>
+      </c>
       <c r="C336" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D336">
         <v>2</v>
@@ -3313,53 +3303,47 @@
     </row>
     <row r="337" spans="1:4">
       <c r="C337" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D337">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" ht="15">
-      <c r="A338">
-        <v>28</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="C338" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D338">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="C339" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D339">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="C340" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D340">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="C341" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D341">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="C342" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D342">
         <v>2</v>
@@ -3367,39 +3351,45 @@
     </row>
     <row r="343" spans="1:4">
       <c r="C343" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D343">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="C344" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="C345" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D345">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:4">
+      <c r="A346">
+        <v>31</v>
+      </c>
+      <c r="B346" t="s">
+        <v>47</v>
+      </c>
       <c r="C346" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D346">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="C347" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D347">
         <v>2</v>
@@ -3407,37 +3397,31 @@
     </row>
     <row r="348" spans="1:4">
       <c r="C348" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D348">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="15">
-      <c r="A349">
-        <v>29</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="349" spans="1:4">
       <c r="C349" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D349">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="C350" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D350">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="C351" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -3445,7 +3429,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="C352" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D352">
         <v>2</v>
@@ -3453,15 +3437,15 @@
     </row>
     <row r="353" spans="1:4">
       <c r="C353" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D353">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="C354" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D354">
         <v>1</v>
@@ -3469,116 +3453,122 @@
     </row>
     <row r="355" spans="1:4">
       <c r="C355" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D355">
         <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:4">
+      <c r="A356">
+        <v>32</v>
+      </c>
+      <c r="B356" t="s">
+        <v>48</v>
+      </c>
       <c r="C356" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D356">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="C357" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D357">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="C358" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D358">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="C359" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D359">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:4">
-      <c r="B360" t="s">
-        <v>17</v>
+      <c r="C360" t="s">
+        <v>9</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:4">
-      <c r="B361" t="s">
-        <v>15</v>
+      <c r="C361" t="s">
+        <v>10</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:4">
-      <c r="B362" t="s">
-        <v>18</v>
+      <c r="C362" t="s">
+        <v>11</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:4">
-      <c r="A363">
-        <v>30</v>
-      </c>
-      <c r="B363" t="s">
-        <v>46</v>
-      </c>
       <c r="C363" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D363">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="C364" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D364">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="C365" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:4">
-      <c r="C366" t="s">
-        <v>8</v>
-      </c>
-      <c r="D366">
-        <v>2</v>
+      <c r="B366" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="367" spans="1:4">
-      <c r="C367" t="s">
-        <v>9</v>
-      </c>
-      <c r="D367">
-        <v>2</v>
+      <c r="B367" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:4">
-      <c r="C368" t="s">
-        <v>10</v>
-      </c>
-      <c r="D368">
-        <v>1</v>
+      <c r="B368" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="369" spans="1:4">
+      <c r="A369">
+        <v>33</v>
+      </c>
+      <c r="B369" t="s">
+        <v>49</v>
+      </c>
       <c r="C369" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D369">
         <v>2</v>
@@ -3586,53 +3576,47 @@
     </row>
     <row r="370" spans="1:4">
       <c r="C370" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D370">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="C371" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D371">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="C372" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D372">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="C373" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D373">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:4">
-      <c r="A374">
-        <v>31</v>
-      </c>
-      <c r="B374" t="s">
-        <v>47</v>
-      </c>
       <c r="C374" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D374">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="C375" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D375">
         <v>2</v>
@@ -3640,39 +3624,45 @@
     </row>
     <row r="376" spans="1:4">
       <c r="C376" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D376">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="C377" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D377">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="C378" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D378">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:4">
+      <c r="A379">
+        <v>34</v>
+      </c>
+      <c r="B379" t="s">
+        <v>50</v>
+      </c>
       <c r="C379" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D379">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="C380" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D380">
         <v>2</v>
@@ -3680,61 +3670,55 @@
     </row>
     <row r="381" spans="1:4">
       <c r="C381" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D381">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="C382" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D382">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="C383" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D383">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="C384" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D384">
         <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:4">
-      <c r="A385">
-        <v>32</v>
-      </c>
-      <c r="B385" t="s">
-        <v>48</v>
-      </c>
       <c r="C385" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="C386" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D386">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="C387" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D387">
         <v>1</v>
@@ -3742,95 +3726,110 @@
     </row>
     <row r="388" spans="1:4">
       <c r="C388" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D388">
         <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:4">
+      <c r="A389">
+        <v>35</v>
+      </c>
+      <c r="B389" t="s">
+        <v>51</v>
+      </c>
       <c r="C389" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="C390" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D390">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="C391" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D391">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="C392" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D392">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="C393" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D393">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="C394" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D394">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="C395" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:4">
-      <c r="B396" t="s">
-        <v>17</v>
+      <c r="C396" t="s">
+        <v>12</v>
+      </c>
+      <c r="D396">
+        <v>0.5</v>
       </c>
     </row>
     <row r="397" spans="1:4">
-      <c r="B397" t="s">
-        <v>15</v>
+      <c r="C397" t="s">
+        <v>13</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:4">
-      <c r="B398" t="s">
-        <v>18</v>
+      <c r="C398" t="s">
+        <v>14</v>
+      </c>
+      <c r="D398">
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B399" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
       </c>
       <c r="D399">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -3854,7 +3853,7 @@
         <v>8</v>
       </c>
       <c r="D402">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -3862,7 +3861,7 @@
         <v>9</v>
       </c>
       <c r="D403">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -3894,7 +3893,7 @@
         <v>13</v>
       </c>
       <c r="D407">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -3906,46 +3905,37 @@
       </c>
     </row>
     <row r="409" spans="1:4">
-      <c r="C409" t="s">
-        <v>15</v>
-      </c>
-      <c r="D409">
-        <v>1</v>
+      <c r="B409" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410">
-        <v>34</v>
-      </c>
       <c r="B410" t="s">
-        <v>50</v>
-      </c>
-      <c r="C410" t="s">
-        <v>5</v>
-      </c>
-      <c r="D410">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="411" spans="1:4">
-      <c r="C411" t="s">
-        <v>6</v>
-      </c>
-      <c r="D411">
-        <v>2</v>
+      <c r="B411" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="412" spans="1:4">
+      <c r="A412">
+        <v>37</v>
+      </c>
+      <c r="B412" t="s">
+        <v>53</v>
+      </c>
       <c r="C412" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D412">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="C413" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D413">
         <v>2</v>
@@ -3953,77 +3943,77 @@
     </row>
     <row r="414" spans="1:4">
       <c r="C414" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D414">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="C415" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D415">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="C416" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D416">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="C417" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D417">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="C418" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D418">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="C419" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D419">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="C420" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D420">
         <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:4">
-      <c r="A421">
-        <v>35</v>
-      </c>
-      <c r="B421" t="s">
-        <v>51</v>
-      </c>
       <c r="C421" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D421">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:4">
+      <c r="A422">
+        <v>38</v>
+      </c>
+      <c r="B422" t="s">
+        <v>54</v>
+      </c>
       <c r="C422" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D422">
         <v>2</v>
@@ -4031,55 +4021,55 @@
     </row>
     <row r="423" spans="1:4">
       <c r="C423" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D423">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="C424" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="C425" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D425">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="C426" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D426">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="C427" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D427">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="C428" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D428">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="C429" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D429">
         <v>0.5</v>
@@ -4087,35 +4077,35 @@
     </row>
     <row r="430" spans="1:4">
       <c r="C430" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D430">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="C431" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B432" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
       </c>
       <c r="D432">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="3:4">
       <c r="C433" t="s">
         <v>6</v>
       </c>
@@ -4123,7 +4113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="3:4">
       <c r="C434" t="s">
         <v>7</v>
       </c>
@@ -4131,23 +4121,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="3:4">
       <c r="C435" t="s">
         <v>8</v>
       </c>
       <c r="D435">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="3:4">
       <c r="C436" t="s">
         <v>9</v>
       </c>
       <c r="D436">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="3:4">
       <c r="C437" t="s">
         <v>10</v>
       </c>
@@ -4155,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="3:4">
       <c r="C438" t="s">
         <v>11</v>
       </c>
@@ -4163,7 +4153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="3:4">
       <c r="C439" t="s">
         <v>12</v>
       </c>
@@ -4171,15 +4161,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="3:4">
       <c r="C440" t="s">
         <v>13</v>
       </c>
       <c r="D440">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="3:4">
       <c r="C441" t="s">
         <v>14</v>
       </c>
@@ -4187,315 +4177,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
-      <c r="C442" t="s">
-        <v>15</v>
-      </c>
-      <c r="D442">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="B443" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4">
-      <c r="B444" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4">
-      <c r="B445" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4">
-      <c r="A446">
-        <v>37</v>
-      </c>
-      <c r="B446" t="s">
-        <v>53</v>
-      </c>
-      <c r="C446" t="s">
-        <v>5</v>
-      </c>
-      <c r="D446">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4">
-      <c r="C447" t="s">
-        <v>6</v>
-      </c>
-      <c r="D447">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4">
-      <c r="C448" t="s">
-        <v>7</v>
-      </c>
-      <c r="D448">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="C449" t="s">
-        <v>8</v>
-      </c>
-      <c r="D449">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4">
-      <c r="C450" t="s">
-        <v>9</v>
-      </c>
-      <c r="D450">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="C451" t="s">
-        <v>10</v>
-      </c>
-      <c r="D451">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="C452" t="s">
-        <v>11</v>
-      </c>
-      <c r="D452">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
-      <c r="C453" t="s">
-        <v>12</v>
-      </c>
-      <c r="D453">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="C454" t="s">
-        <v>13</v>
-      </c>
-      <c r="D454">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="C455" t="s">
-        <v>14</v>
-      </c>
-      <c r="D455">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="C456" t="s">
-        <v>15</v>
-      </c>
-      <c r="D456">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
-      <c r="A457">
-        <v>38</v>
-      </c>
-      <c r="B457" t="s">
-        <v>54</v>
-      </c>
-      <c r="C457" t="s">
-        <v>5</v>
-      </c>
-      <c r="D457">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
-      <c r="C458" t="s">
-        <v>6</v>
-      </c>
-      <c r="D458">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
-      <c r="C459" t="s">
-        <v>7</v>
-      </c>
-      <c r="D459">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="C460" t="s">
-        <v>8</v>
-      </c>
-      <c r="D460">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="C461" t="s">
-        <v>9</v>
-      </c>
-      <c r="D461">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="C462" t="s">
-        <v>10</v>
-      </c>
-      <c r="D462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="C463" t="s">
-        <v>11</v>
-      </c>
-      <c r="D463">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
-      <c r="C464" t="s">
-        <v>12</v>
-      </c>
-      <c r="D464">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="C465" t="s">
-        <v>13</v>
-      </c>
-      <c r="D465">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4">
-      <c r="C466" t="s">
-        <v>14</v>
-      </c>
-      <c r="D466">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="C467" t="s">
-        <v>15</v>
-      </c>
-      <c r="D467">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="A468">
-        <v>39</v>
-      </c>
-      <c r="B468" t="s">
-        <v>55</v>
-      </c>
-      <c r="C468" t="s">
-        <v>5</v>
-      </c>
-      <c r="D468">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
-      <c r="C469" t="s">
-        <v>6</v>
-      </c>
-      <c r="D469">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
-      <c r="C470" t="s">
-        <v>7</v>
-      </c>
-      <c r="D470">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4">
-      <c r="C471" t="s">
-        <v>8</v>
-      </c>
-      <c r="D471">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
-      <c r="C472" t="s">
-        <v>9</v>
-      </c>
-      <c r="D472">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
-      <c r="C473" t="s">
-        <v>10</v>
-      </c>
-      <c r="D473">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
-      <c r="C474" t="s">
-        <v>11</v>
-      </c>
-      <c r="D474">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
-      <c r="C475" t="s">
-        <v>12</v>
-      </c>
-      <c r="D475">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
-      <c r="C476" t="s">
-        <v>13</v>
-      </c>
-      <c r="D476">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
-      <c r="C477" t="s">
-        <v>14</v>
-      </c>
-      <c r="D477">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
-      <c r="C478" t="s">
-        <v>15</v>
-      </c>
-      <c r="D478">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="4:4">
-      <c r="D481">
-        <f>SUM(D2:D478)</f>
-        <v>730</v>
+    <row r="444" spans="3:4">
+      <c r="D444">
+        <f>SUM(D2:D441)</f>
+        <v>758.5</v>
       </c>
     </row>
   </sheetData>

--- a/Process/Tenacious Estimation - WBS.xlsx
+++ b/Process/Tenacious Estimation - WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHN-RAFI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64543D16-51CC-4902-83F9-51B07D787E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{334E2B1C-19A7-44DD-A323-0F3BB27DC1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{813F1D14-437E-4E9E-A964-A3190BB7C894}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="59">
   <si>
     <t>S.No</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t xml:space="preserve">Publisher - Publish </t>
+  </si>
+  <si>
+    <t>ESTIMATED TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUFFER HOURS </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -244,9 +253,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E587CB-A2A0-490F-98EB-8682FC24F931}">
-  <dimension ref="A1:D444"/>
+  <dimension ref="A1:D448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E352" sqref="E352"/>
+    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C448" sqref="C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -600,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -616,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -624,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -632,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -640,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -648,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -664,13 +676,16 @@
         <v>13</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" t="s">
         <v>14</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
@@ -683,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -691,7 +706,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -699,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -707,7 +722,7 @@
         <v>8</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -715,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -723,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -731,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -754,6 +769,9 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
@@ -968,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -976,23 +994,20 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="C50" t="s">
         <v>7</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1000,7 +1015,7 @@
         <v>9</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1016,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1054,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1070,7 +1085,7 @@
         <v>7</v>
       </c>
       <c r="D60">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1241,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1249,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1257,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="D84">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1265,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1273,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1289,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1342,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1358,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1366,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1374,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1414,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15">
@@ -1428,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1436,23 +1451,20 @@
         <v>6</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="C107" t="s">
         <v>7</v>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
     </row>
     <row r="108" spans="1:4">
       <c r="C108" t="s">
         <v>8</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1460,7 +1472,7 @@
         <v>9</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1500,7 +1512,7 @@
         <v>14</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1529,7 +1541,7 @@
         <v>5</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -1537,7 +1549,7 @@
         <v>6</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -1553,7 +1565,7 @@
         <v>8</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -1561,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -1577,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -1601,7 +1613,7 @@
         <v>14</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
@@ -1615,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -1623,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -1631,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="D130">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -1639,7 +1651,7 @@
         <v>8</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -1647,7 +1659,7 @@
         <v>9</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -1663,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -1671,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -1679,7 +1691,7 @@
         <v>13</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -1687,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -1716,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -1724,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -1732,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -1740,7 +1752,7 @@
         <v>8</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -1748,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -1764,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -1780,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -1802,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -1818,7 +1830,7 @@
         <v>7</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -1826,7 +1838,7 @@
         <v>8</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -1834,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -1858,7 +1870,7 @@
         <v>12</v>
       </c>
       <c r="D158">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -1874,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -1903,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -1911,23 +1923,20 @@
         <v>6</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="C166" t="s">
         <v>7</v>
       </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
     </row>
     <row r="167" spans="1:4">
       <c r="C167" t="s">
         <v>8</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -1935,7 +1944,7 @@
         <v>9</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -1975,7 +1984,7 @@
         <v>14</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15">
@@ -1989,7 +1998,7 @@
         <v>5</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -1997,7 +2006,7 @@
         <v>6</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2005,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2013,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2021,7 +2030,7 @@
         <v>9</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2037,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2045,7 +2054,7 @@
         <v>12</v>
       </c>
       <c r="D181">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2061,7 +2070,7 @@
         <v>14</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2363,7 +2372,7 @@
         <v>5</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -2371,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -2387,7 +2396,7 @@
         <v>8</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -2395,7 +2404,7 @@
         <v>9</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -2411,7 +2420,7 @@
         <v>11</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -2419,7 +2428,7 @@
         <v>12</v>
       </c>
       <c r="D228">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -2435,7 +2444,7 @@
         <v>14</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3298,7 +3307,7 @@
         <v>5</v>
       </c>
       <c r="D336">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -3314,7 +3323,7 @@
         <v>7</v>
       </c>
       <c r="D338">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -3322,7 +3331,7 @@
         <v>8</v>
       </c>
       <c r="D339">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -3330,7 +3339,7 @@
         <v>9</v>
       </c>
       <c r="D340">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -3346,7 +3355,7 @@
         <v>11</v>
       </c>
       <c r="D342">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -3370,7 +3379,7 @@
         <v>14</v>
       </c>
       <c r="D345">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -3384,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="D346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -3392,7 +3401,7 @@
         <v>6</v>
       </c>
       <c r="D347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -3408,7 +3417,7 @@
         <v>8</v>
       </c>
       <c r="D349">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -3416,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="D350">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -3432,7 +3441,7 @@
         <v>11</v>
       </c>
       <c r="D352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -3456,7 +3465,7 @@
         <v>14</v>
       </c>
       <c r="D355">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -3470,7 +3479,7 @@
         <v>5</v>
       </c>
       <c r="D356">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -3478,7 +3487,7 @@
         <v>6</v>
       </c>
       <c r="D357">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -3486,7 +3495,7 @@
         <v>7</v>
       </c>
       <c r="D358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -3494,7 +3503,7 @@
         <v>8</v>
       </c>
       <c r="D359">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -3502,7 +3511,7 @@
         <v>9</v>
       </c>
       <c r="D360">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -3542,7 +3551,7 @@
         <v>14</v>
       </c>
       <c r="D365">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -3571,7 +3580,7 @@
         <v>5</v>
       </c>
       <c r="D369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -3587,7 +3596,7 @@
         <v>7</v>
       </c>
       <c r="D371">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -3595,7 +3604,7 @@
         <v>8</v>
       </c>
       <c r="D372">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -3603,7 +3612,7 @@
         <v>9</v>
       </c>
       <c r="D373">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -3611,7 +3620,7 @@
         <v>10</v>
       </c>
       <c r="D374">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -3619,7 +3628,7 @@
         <v>11</v>
       </c>
       <c r="D375">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -3643,7 +3652,7 @@
         <v>14</v>
       </c>
       <c r="D378">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -3657,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="D379">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -3665,7 +3674,7 @@
         <v>6</v>
       </c>
       <c r="D380">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -3673,7 +3682,7 @@
         <v>7</v>
       </c>
       <c r="D381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -3681,7 +3690,7 @@
         <v>8</v>
       </c>
       <c r="D382">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -3689,7 +3698,7 @@
         <v>9</v>
       </c>
       <c r="D383">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -3721,7 +3730,7 @@
         <v>13</v>
       </c>
       <c r="D387">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -3729,7 +3738,7 @@
         <v>14</v>
       </c>
       <c r="D388">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -3743,7 +3752,7 @@
         <v>5</v>
       </c>
       <c r="D389">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -3767,7 +3776,7 @@
         <v>8</v>
       </c>
       <c r="D392">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -3775,7 +3784,7 @@
         <v>9</v>
       </c>
       <c r="D393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -3799,7 +3808,7 @@
         <v>12</v>
       </c>
       <c r="D396">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -3829,7 +3838,7 @@
         <v>5</v>
       </c>
       <c r="D399">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -3853,7 +3862,7 @@
         <v>8</v>
       </c>
       <c r="D402">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -3861,7 +3870,7 @@
         <v>9</v>
       </c>
       <c r="D403">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -3885,7 +3894,7 @@
         <v>12</v>
       </c>
       <c r="D406">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -3930,7 +3939,7 @@
         <v>5</v>
       </c>
       <c r="D412">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -3954,7 +3963,7 @@
         <v>8</v>
       </c>
       <c r="D415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -3962,7 +3971,7 @@
         <v>9</v>
       </c>
       <c r="D416">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -3978,7 +3987,7 @@
         <v>11</v>
       </c>
       <c r="D418">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -4002,7 +4011,7 @@
         <v>14</v>
       </c>
       <c r="D421">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -4016,7 +4025,7 @@
         <v>5</v>
       </c>
       <c r="D422">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -4040,7 +4049,7 @@
         <v>8</v>
       </c>
       <c r="D425">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -4048,7 +4057,7 @@
         <v>9</v>
       </c>
       <c r="D426">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -4064,7 +4073,7 @@
         <v>11</v>
       </c>
       <c r="D428">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -4088,7 +4097,7 @@
         <v>14</v>
       </c>
       <c r="D431">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -4126,7 +4135,7 @@
         <v>8</v>
       </c>
       <c r="D435">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="3:4">
@@ -4134,7 +4143,7 @@
         <v>9</v>
       </c>
       <c r="D436">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="3:4">
@@ -4174,13 +4183,32 @@
         <v>14</v>
       </c>
       <c r="D441">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="444" spans="3:4">
+      <c r="C444" t="s">
+        <v>56</v>
+      </c>
       <c r="D444">
         <f>SUM(D2:D441)</f>
-        <v>758.5</v>
+        <v>586.4</v>
+      </c>
+    </row>
+    <row r="445" spans="3:4">
+      <c r="C445" t="s">
+        <v>57</v>
+      </c>
+      <c r="D445">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="448" spans="3:4">
+      <c r="C448" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D448" s="2">
+        <v>606.4</v>
       </c>
     </row>
   </sheetData>

--- a/Process/Tenacious Estimation - WBS.xlsx
+++ b/Process/Tenacious Estimation - WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHN-RAFI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{334E2B1C-19A7-44DD-A323-0F3BB27DC1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D2858C-092E-47A9-87B2-4962B8B51990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{813F1D14-437E-4E9E-A964-A3190BB7C894}"/>
   </bookViews>
@@ -253,12 +253,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E587CB-A2A0-490F-98EB-8682FC24F931}">
-  <dimension ref="A1:D448"/>
+  <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C448" sqref="C448"/>
+    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D453" sqref="D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -587,7 +588,7 @@
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -615,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" ht="15">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -623,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" ht="15">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -631,7 +632,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" ht="15">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -639,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" ht="15">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -647,15 +648,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" ht="15">
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f>SUM(D2:D11)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -663,7 +668,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" ht="15">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -671,7 +676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" ht="15">
       <c r="C10" t="s">
         <v>13</v>
       </c>
@@ -679,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" ht="15">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -687,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -701,7 +706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -709,15 +714,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f>SUM(D12:D21)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="C15" t="s">
         <v>8</v>
       </c>
@@ -725,7 +734,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -733,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="C17" t="s">
         <v>10</v>
       </c>
@@ -741,7 +750,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -749,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -757,7 +766,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="C20" t="s">
         <v>13</v>
       </c>
@@ -765,7 +774,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -773,22 +782,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>3</v>
       </c>
@@ -802,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -810,7 +819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -818,15 +827,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <f>SUM(D25:D34)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="C29" t="s">
         <v>9</v>
       </c>
@@ -834,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="C30" t="s">
         <v>10</v>
       </c>
@@ -842,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -850,7 +863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -858,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="C33" t="s">
         <v>13</v>
       </c>
@@ -866,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -874,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>4</v>
       </c>
@@ -888,7 +901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="C36" t="s">
         <v>6</v>
       </c>
@@ -896,15 +909,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <f>SUM(D35:D44)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="C38" t="s">
         <v>8</v>
       </c>
@@ -912,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="C39" t="s">
         <v>9</v>
       </c>
@@ -920,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="C40" t="s">
         <v>10</v>
       </c>
@@ -928,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -936,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -944,7 +961,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="C43" t="s">
         <v>13</v>
       </c>
@@ -952,7 +969,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -960,22 +977,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="B45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="B46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="B47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>5</v>
       </c>
@@ -989,7 +1006,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -997,20 +1014,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="C50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <f>SUM(D48:D57)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="C52" t="s">
         <v>9</v>
       </c>
@@ -1018,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="C53" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1055,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -1042,7 +1063,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="C56" t="s">
         <v>13</v>
       </c>
@@ -1050,7 +1071,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>6</v>
       </c>
@@ -1072,15 +1093,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5" ht="15">
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="3">
+        <f>SUM(D58:D67)</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="C60" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="C61" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="C62" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="C63" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -1120,7 +1145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="C66" t="s">
         <v>13</v>
       </c>
@@ -1136,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="C67" t="s">
         <v>14</v>
       </c>
@@ -1144,22 +1169,22 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="B69" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="B70" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="B71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>7</v>
       </c>
@@ -1173,7 +1198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="C73" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="C74" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1214,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="C75" t="s">
         <v>8</v>
       </c>
@@ -1197,15 +1222,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="C76" t="s">
         <v>9</v>
       </c>
       <c r="D76">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <f>SUM(D72:D81)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="C77" t="s">
         <v>10</v>
       </c>
@@ -1213,7 +1242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -1221,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="C79" t="s">
         <v>12</v>
       </c>
@@ -1229,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="C80" t="s">
         <v>13</v>
       </c>
@@ -1237,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -1245,7 +1274,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>8</v>
       </c>
@@ -1259,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="C83" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5">
       <c r="C84" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1304,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="C85" t="s">
         <v>8</v>
       </c>
@@ -1283,15 +1312,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="C86" t="s">
         <v>9</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <f>SUM(D82:D91)</f>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="C87" t="s">
         <v>10</v>
       </c>
@@ -1299,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="C88" t="s">
         <v>11</v>
       </c>
@@ -1307,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="C89" t="s">
         <v>12</v>
       </c>
@@ -1315,7 +1348,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="C90" t="s">
         <v>13</v>
       </c>
@@ -1323,7 +1356,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="C91" t="s">
         <v>14</v>
       </c>
@@ -1331,22 +1364,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="B92" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="B93" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="B94" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15">
+    <row r="95" spans="1:5" ht="15">
       <c r="A95">
         <v>9</v>
       </c>
@@ -1360,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5">
       <c r="C96" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5">
       <c r="C97" t="s">
         <v>7</v>
       </c>
@@ -1376,7 +1409,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:5">
       <c r="C98" t="s">
         <v>8</v>
       </c>
@@ -1384,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5">
       <c r="C99" t="s">
         <v>9</v>
       </c>
@@ -1392,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5">
       <c r="C100" t="s">
         <v>10</v>
       </c>
@@ -1400,15 +1433,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5">
       <c r="C101" t="s">
         <v>11</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101">
+        <f>SUM(D95:D104)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="C102" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:5">
       <c r="C103" t="s">
         <v>13</v>
       </c>
@@ -1424,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:5">
       <c r="C104" t="s">
         <v>14</v>
       </c>
@@ -1432,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15">
+    <row r="105" spans="1:5" ht="15">
       <c r="A105">
         <v>10</v>
       </c>
@@ -1446,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:5">
       <c r="C106" t="s">
         <v>6</v>
       </c>
@@ -1454,12 +1491,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:5">
       <c r="C107" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:5">
       <c r="C108" t="s">
         <v>8</v>
       </c>
@@ -1467,15 +1504,19 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:5">
       <c r="C109" t="s">
         <v>9</v>
       </c>
       <c r="D109">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109">
+        <f>SUM(D105:D114)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="C110" t="s">
         <v>10</v>
       </c>
@@ -1483,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5">
       <c r="C111" t="s">
         <v>11</v>
       </c>
@@ -1491,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5">
       <c r="C112" t="s">
         <v>12</v>
       </c>
@@ -1499,7 +1540,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5">
       <c r="C113" t="s">
         <v>13</v>
       </c>
@@ -1507,7 +1548,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:5">
       <c r="C114" t="s">
         <v>14</v>
       </c>
@@ -1515,22 +1556,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5">
       <c r="B115" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:5">
       <c r="B116" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:5">
       <c r="B117" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15">
+    <row r="118" spans="1:5" ht="15">
       <c r="A118">
         <v>11</v>
       </c>
@@ -1544,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:5">
       <c r="C119" t="s">
         <v>6</v>
       </c>
@@ -1552,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:5">
       <c r="C120" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:5">
       <c r="C121" t="s">
         <v>8</v>
       </c>
@@ -1568,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:5">
       <c r="C122" t="s">
         <v>9</v>
       </c>
@@ -1576,15 +1617,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:5">
       <c r="C123" t="s">
         <v>10</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123">
+        <f>SUM(D118:D127)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="C124" t="s">
         <v>11</v>
       </c>
@@ -1592,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:5">
       <c r="C125" t="s">
         <v>12</v>
       </c>
@@ -1600,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:5">
       <c r="C126" t="s">
         <v>13</v>
       </c>
@@ -1608,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:5">
       <c r="C127" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +1661,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15">
+    <row r="128" spans="1:5" ht="15">
       <c r="A128">
         <v>12</v>
       </c>
@@ -1630,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:5">
       <c r="C129" t="s">
         <v>6</v>
       </c>
@@ -1638,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:5">
       <c r="C130" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:5">
       <c r="C131" t="s">
         <v>8</v>
       </c>
@@ -1654,15 +1699,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:5">
       <c r="C132" t="s">
         <v>9</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132">
+        <f>SUM(D128:D137)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="C133" t="s">
         <v>10</v>
       </c>
@@ -1670,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:5">
       <c r="C134" t="s">
         <v>11</v>
       </c>
@@ -1678,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:5">
       <c r="C135" t="s">
         <v>12</v>
       </c>
@@ -1686,7 +1735,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:5">
       <c r="C136" t="s">
         <v>13</v>
       </c>
@@ -1694,7 +1743,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:5">
       <c r="C137" t="s">
         <v>14</v>
       </c>
@@ -1702,22 +1751,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:5">
       <c r="B138" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:5">
       <c r="B139" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:5">
       <c r="B140" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15">
+    <row r="141" spans="1:5" ht="15">
       <c r="A141">
         <v>13</v>
       </c>
@@ -1731,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:5">
       <c r="C142" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:5">
       <c r="C143" t="s">
         <v>7</v>
       </c>
@@ -1747,7 +1796,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:5">
       <c r="C144" t="s">
         <v>8</v>
       </c>
@@ -1755,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:5">
       <c r="C145" t="s">
         <v>9</v>
       </c>
@@ -1763,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:5">
       <c r="C146" t="s">
         <v>10</v>
       </c>
@@ -1771,15 +1820,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:5">
       <c r="C147" t="s">
         <v>11</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147">
+        <f>SUM(D141:D150)</f>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="C148" t="s">
         <v>12</v>
       </c>
@@ -1787,7 +1840,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:5">
       <c r="C149" t="s">
         <v>13</v>
       </c>
@@ -1795,7 +1848,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:5">
       <c r="C150" t="s">
         <v>14</v>
       </c>
@@ -1803,7 +1856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15">
+    <row r="151" spans="1:5" ht="15">
       <c r="A151">
         <v>14</v>
       </c>
@@ -1817,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:5">
       <c r="C152" t="s">
         <v>6</v>
       </c>
@@ -1825,7 +1878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:5">
       <c r="C153" t="s">
         <v>7</v>
       </c>
@@ -1833,15 +1886,19 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:5">
       <c r="C154" t="s">
         <v>8</v>
       </c>
       <c r="D154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154">
+        <f>SUM(D151:D160)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="C155" t="s">
         <v>9</v>
       </c>
@@ -1849,7 +1906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:5">
       <c r="C156" t="s">
         <v>10</v>
       </c>
@@ -1857,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:5">
       <c r="C157" t="s">
         <v>11</v>
       </c>
@@ -1865,7 +1922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:5">
       <c r="C158" t="s">
         <v>12</v>
       </c>
@@ -1873,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:5">
       <c r="C159" t="s">
         <v>13</v>
       </c>
@@ -1881,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:5">
       <c r="C160" t="s">
         <v>14</v>
       </c>
@@ -1889,22 +1946,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:5">
       <c r="B161" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:5">
       <c r="B162" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:5">
       <c r="B163" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15">
+    <row r="164" spans="1:5" ht="15">
       <c r="A164">
         <v>15</v>
       </c>
@@ -1918,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:5">
       <c r="C165" t="s">
         <v>6</v>
       </c>
@@ -1926,12 +1983,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:5">
       <c r="C166" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:5">
       <c r="C167" t="s">
         <v>8</v>
       </c>
@@ -1939,7 +1996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:5">
       <c r="C168" t="s">
         <v>9</v>
       </c>
@@ -1947,15 +2004,19 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:5" ht="15">
       <c r="C169" t="s">
         <v>10</v>
       </c>
       <c r="D169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" s="3">
+        <f>SUM(D164:D173)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="C170" t="s">
         <v>11</v>
       </c>
@@ -1963,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:5">
       <c r="C171" t="s">
         <v>12</v>
       </c>
@@ -1971,7 +2032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:5">
       <c r="C172" t="s">
         <v>13</v>
       </c>
@@ -1979,7 +2040,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:5">
       <c r="C173" t="s">
         <v>14</v>
       </c>
@@ -1987,7 +2048,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15">
+    <row r="174" spans="1:5" ht="15">
       <c r="A174">
         <v>16</v>
       </c>
@@ -2001,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:5">
       <c r="C175" t="s">
         <v>6</v>
       </c>
@@ -2009,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:5">
       <c r="C176" t="s">
         <v>7</v>
       </c>
@@ -2017,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:5">
       <c r="C177" t="s">
         <v>8</v>
       </c>
@@ -2025,15 +2086,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:5">
       <c r="C178" t="s">
         <v>9</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178">
+        <f>SUM(D174:D183)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="C179" t="s">
         <v>10</v>
       </c>
@@ -2041,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:5">
       <c r="C180" t="s">
         <v>11</v>
       </c>
@@ -2049,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:5">
       <c r="C181" t="s">
         <v>12</v>
       </c>
@@ -2057,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:5">
       <c r="C182" t="s">
         <v>13</v>
       </c>
@@ -2065,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:5">
       <c r="C183" t="s">
         <v>14</v>
       </c>
@@ -2073,22 +2138,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:5">
       <c r="B184" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:5">
       <c r="B185" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:5">
       <c r="B186" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15">
+    <row r="187" spans="1:5" ht="15">
       <c r="A187">
         <v>17</v>
       </c>
@@ -2102,7 +2167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:5">
       <c r="C188" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:5">
       <c r="C189" t="s">
         <v>7</v>
       </c>
@@ -2118,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:5">
       <c r="C190" t="s">
         <v>8</v>
       </c>
@@ -2126,7 +2191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:5">
       <c r="C191" t="s">
         <v>9</v>
       </c>
@@ -2134,15 +2199,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:5">
       <c r="C192" t="s">
         <v>10</v>
       </c>
       <c r="D192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192">
+        <f>SUM(D187:D196)</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="C193" t="s">
         <v>11</v>
       </c>
@@ -2150,7 +2219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:5">
       <c r="C194" t="s">
         <v>12</v>
       </c>
@@ -2158,7 +2227,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:5">
       <c r="C195" t="s">
         <v>13</v>
       </c>
@@ -2166,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:5">
       <c r="C196" t="s">
         <v>14</v>
       </c>
@@ -2174,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15">
+    <row r="198" spans="1:5" ht="15">
       <c r="A198">
         <v>18</v>
       </c>
@@ -2188,7 +2257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:5">
       <c r="C199" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:5">
       <c r="C200" t="s">
         <v>7</v>
       </c>
@@ -2204,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:5">
       <c r="C201" t="s">
         <v>8</v>
       </c>
@@ -2212,15 +2281,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:5">
       <c r="C202" t="s">
         <v>9</v>
       </c>
       <c r="D202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="E202">
+        <f>SUM(D198:D207)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="C203" t="s">
         <v>10</v>
       </c>
@@ -2228,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:5">
       <c r="C204" t="s">
         <v>11</v>
       </c>
@@ -2236,7 +2309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:5">
       <c r="C205" t="s">
         <v>12</v>
       </c>
@@ -2244,7 +2317,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:5">
       <c r="C206" t="s">
         <v>13</v>
       </c>
@@ -2252,7 +2325,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:5">
       <c r="C207" t="s">
         <v>14</v>
       </c>
@@ -2260,22 +2333,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:5">
       <c r="B208" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:5">
       <c r="B209" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:5">
       <c r="B210" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15">
+    <row r="211" spans="1:5" ht="15">
       <c r="A211">
         <v>19</v>
       </c>
@@ -2289,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:5">
       <c r="C212" t="s">
         <v>6</v>
       </c>
@@ -2297,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:5">
       <c r="C213" t="s">
         <v>7</v>
       </c>
@@ -2305,15 +2378,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:5" ht="15">
       <c r="C214" t="s">
         <v>8</v>
       </c>
       <c r="D214">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214" s="3">
+        <f>SUM(D211:D220)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="C215" t="s">
         <v>9</v>
       </c>
@@ -2321,7 +2398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:5">
       <c r="C216" t="s">
         <v>10</v>
       </c>
@@ -2329,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:5">
       <c r="C217" t="s">
         <v>11</v>
       </c>
@@ -2337,7 +2414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:5">
       <c r="C218" t="s">
         <v>12</v>
       </c>
@@ -2345,7 +2422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:5">
       <c r="C219" t="s">
         <v>13</v>
       </c>
@@ -2353,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:5">
       <c r="C220" t="s">
         <v>14</v>
       </c>
@@ -2361,7 +2438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15">
+    <row r="221" spans="1:5" ht="15">
       <c r="A221">
         <v>20</v>
       </c>
@@ -2375,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:5">
       <c r="C222" t="s">
         <v>6</v>
       </c>
@@ -2383,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:5">
       <c r="C223" t="s">
         <v>7</v>
       </c>
@@ -2391,12 +2468,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:5" ht="15">
       <c r="C224" t="s">
         <v>8</v>
       </c>
       <c r="D224">
         <v>1</v>
+      </c>
+      <c r="E224" s="3">
+        <f>SUM(D221:D230)</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -2524,15 +2605,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:5">
       <c r="C241" t="s">
         <v>12</v>
       </c>
       <c r="D241">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="E241">
+        <f>SUM(D234:D243)</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="C242" t="s">
         <v>13</v>
       </c>
@@ -2540,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:5">
       <c r="C243" t="s">
         <v>14</v>
       </c>
@@ -2548,7 +2633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15">
+    <row r="244" spans="1:5" ht="15">
       <c r="A244">
         <v>22</v>
       </c>
@@ -2562,7 +2647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:5">
       <c r="C245" t="s">
         <v>6</v>
       </c>
@@ -2570,7 +2655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:5">
       <c r="C246" t="s">
         <v>7</v>
       </c>
@@ -2578,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:5">
       <c r="C247" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +2671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:5">
       <c r="C248" t="s">
         <v>9</v>
       </c>
@@ -2594,15 +2679,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:5">
       <c r="C249" t="s">
         <v>10</v>
       </c>
       <c r="D249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="E249">
+        <f>SUM(D244:D253)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="C250" t="s">
         <v>11</v>
       </c>
@@ -2610,7 +2699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:5">
       <c r="C251" t="s">
         <v>12</v>
       </c>
@@ -2618,7 +2707,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:5">
       <c r="C252" t="s">
         <v>13</v>
       </c>
@@ -2626,7 +2715,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:5">
       <c r="C253" t="s">
         <v>14</v>
       </c>
@@ -2634,22 +2723,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:5">
       <c r="B254" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:5">
       <c r="B255" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:5">
       <c r="B256" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15">
+    <row r="257" spans="1:5" ht="15">
       <c r="A257">
         <v>23</v>
       </c>
@@ -2663,7 +2752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:5">
       <c r="C258" t="s">
         <v>6</v>
       </c>
@@ -2671,7 +2760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:5">
       <c r="C259" t="s">
         <v>7</v>
       </c>
@@ -2679,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:5">
       <c r="C260" t="s">
         <v>8</v>
       </c>
@@ -2687,7 +2776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:5">
       <c r="C261" t="s">
         <v>9</v>
       </c>
@@ -2695,7 +2784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:5">
       <c r="C262" t="s">
         <v>10</v>
       </c>
@@ -2703,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:5">
       <c r="C263" t="s">
         <v>11</v>
       </c>
@@ -2711,7 +2800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:5">
       <c r="C264" t="s">
         <v>12</v>
       </c>
@@ -2719,15 +2808,19 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:5">
       <c r="C265" t="s">
         <v>13</v>
       </c>
       <c r="D265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="E265">
+        <f>SUM(D257:D266)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
       <c r="C266" t="s">
         <v>14</v>
       </c>
@@ -2735,7 +2828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15">
+    <row r="267" spans="1:5" ht="15">
       <c r="A267">
         <v>24</v>
       </c>
@@ -2749,7 +2842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:5">
       <c r="C268" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +2850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:5">
       <c r="C269" t="s">
         <v>7</v>
       </c>
@@ -2765,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:5">
       <c r="C270" t="s">
         <v>8</v>
       </c>
@@ -2773,7 +2866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:5">
       <c r="C271" t="s">
         <v>9</v>
       </c>
@@ -2781,15 +2874,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:5">
       <c r="C272" t="s">
         <v>10</v>
       </c>
       <c r="D272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="E272">
+        <f>SUM(D267:D276)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
       <c r="C273" t="s">
         <v>11</v>
       </c>
@@ -2797,7 +2894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:5">
       <c r="C274" t="s">
         <v>12</v>
       </c>
@@ -2805,7 +2902,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:5">
       <c r="C275" t="s">
         <v>13</v>
       </c>
@@ -2813,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:5">
       <c r="C276" t="s">
         <v>14</v>
       </c>
@@ -2821,22 +2918,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:5">
       <c r="B277" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:5">
       <c r="B278" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:5">
       <c r="B279" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15">
+    <row r="280" spans="1:5" ht="15">
       <c r="A280">
         <v>25</v>
       </c>
@@ -2850,7 +2947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:5">
       <c r="C281" t="s">
         <v>6</v>
       </c>
@@ -2858,15 +2955,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:5">
       <c r="C282" t="s">
         <v>7</v>
       </c>
       <c r="D282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:4">
+      <c r="E282">
+        <f>SUM(D280:D290)</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
       <c r="C283" t="s">
         <v>8</v>
       </c>
@@ -2874,7 +2975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:5">
       <c r="C284" t="s">
         <v>9</v>
       </c>
@@ -2882,7 +2983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:5">
       <c r="C285" t="s">
         <v>10</v>
       </c>
@@ -2890,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:5">
       <c r="C286" t="s">
         <v>11</v>
       </c>
@@ -2898,7 +2999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:5">
       <c r="C287" t="s">
         <v>12</v>
       </c>
@@ -2906,7 +3007,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:5">
       <c r="C288" t="s">
         <v>13</v>
       </c>
@@ -2914,1300 +3015,1356 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="C289" t="s">
+    <row r="290" spans="1:5">
+      <c r="C290" t="s">
         <v>14</v>
       </c>
-      <c r="D289">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="15">
-      <c r="A290">
+      <c r="D290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="15">
+      <c r="A291">
         <v>26</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B291" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C290" t="s">
-        <v>5</v>
-      </c>
-      <c r="D290">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
       <c r="C291" t="s">
+        <v>5</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="C292" t="s">
         <v>6</v>
       </c>
-      <c r="D291">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="C292" t="s">
+      <c r="D292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="C293" t="s">
         <v>7</v>
       </c>
-      <c r="D292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="C293" t="s">
-        <v>8</v>
-      </c>
       <c r="D293">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="C294" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="C295" t="s">
         <v>9</v>
       </c>
-      <c r="D294">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="C295" t="s">
-        <v>10</v>
-      </c>
       <c r="D295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
       <c r="C296" t="s">
+        <v>10</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+      <c r="E296">
+        <f>SUM(D290:D300)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="C297" t="s">
         <v>11</v>
       </c>
-      <c r="D296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="C297" t="s">
+      <c r="D297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="C298" t="s">
         <v>12</v>
       </c>
-      <c r="D297">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="C298" t="s">
+      <c r="D298">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="C299" t="s">
         <v>13</v>
       </c>
-      <c r="D298">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="C299" t="s">
+      <c r="D299">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="C300" t="s">
         <v>14</v>
       </c>
-      <c r="D299">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="B300" t="s">
+      <c r="D300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="B301" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="B301" t="s">
+    <row r="302" spans="1:5">
+      <c r="B302" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="B302" t="s">
+    <row r="303" spans="1:5">
+      <c r="B303" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15">
-      <c r="A303">
+    <row r="304" spans="1:5" ht="15">
+      <c r="A304">
         <v>27</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B304" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C303" t="s">
-        <v>5</v>
-      </c>
-      <c r="D303">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
       <c r="C304" t="s">
+        <v>5</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="C305" t="s">
         <v>6</v>
       </c>
-      <c r="D304">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
-      <c r="C305" t="s">
+      <c r="D305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="C306" t="s">
         <v>7</v>
       </c>
-      <c r="D305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="C306" t="s">
-        <v>8</v>
-      </c>
       <c r="D306">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="C307" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D307">
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:5">
       <c r="C308" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E308">
+        <f>SUM(D304:D313)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
       <c r="C309" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="C310" t="s">
         <v>11</v>
       </c>
-      <c r="D309">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="C310" t="s">
+      <c r="D310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="C311" t="s">
         <v>12</v>
       </c>
-      <c r="D310">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="C311" t="s">
+      <c r="D311">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="C312" t="s">
         <v>13</v>
       </c>
-      <c r="D311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="C312" t="s">
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="C313" t="s">
         <v>14</v>
       </c>
-      <c r="D312">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="15">
-      <c r="A313">
+      <c r="D313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="15">
+      <c r="A314">
         <v>28</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C313" t="s">
-        <v>5</v>
-      </c>
-      <c r="D313">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
       <c r="C314" t="s">
+        <v>5</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="C315" t="s">
         <v>6</v>
       </c>
-      <c r="D314">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="C315" t="s">
+      <c r="D315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="C316" t="s">
         <v>7</v>
       </c>
-      <c r="D315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="C316" t="s">
-        <v>8</v>
-      </c>
       <c r="D316">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
       <c r="C317" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D317">
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:5">
       <c r="C318" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E318">
+        <f>SUM(D314:D323)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
       <c r="C319" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="C320" t="s">
         <v>11</v>
       </c>
-      <c r="D319">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="C320" t="s">
+      <c r="D320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="C321" t="s">
         <v>12</v>
       </c>
-      <c r="D320">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="C321" t="s">
+      <c r="D321">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="C322" t="s">
         <v>13</v>
       </c>
-      <c r="D321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4">
-      <c r="C322" t="s">
+      <c r="D322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="C323" t="s">
         <v>14</v>
       </c>
-      <c r="D322">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="15">
-      <c r="A323">
+      <c r="D323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="15">
+      <c r="A324">
         <v>29</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B324" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C323" t="s">
-        <v>5</v>
-      </c>
-      <c r="D323">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4">
       <c r="C324" t="s">
+        <v>5</v>
+      </c>
+      <c r="D324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="C325" t="s">
         <v>6</v>
       </c>
-      <c r="D324">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4">
-      <c r="C325" t="s">
+      <c r="D325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="C326" t="s">
         <v>7</v>
       </c>
-      <c r="D325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4">
-      <c r="C326" t="s">
-        <v>8</v>
-      </c>
       <c r="D326">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
       <c r="C327" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="15">
+      <c r="C328" t="s">
         <v>9</v>
       </c>
-      <c r="D327">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4">
-      <c r="C328" t="s">
-        <v>10</v>
-      </c>
       <c r="D328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E328" s="3">
+        <f>SUM(D324:D333)</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
       <c r="C329" t="s">
+        <v>10</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="C330" t="s">
         <v>11</v>
       </c>
-      <c r="D329">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="C330" t="s">
+      <c r="D330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="C331" t="s">
         <v>12</v>
       </c>
-      <c r="D330">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4">
-      <c r="C331" t="s">
+      <c r="D331">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="C332" t="s">
         <v>13</v>
       </c>
-      <c r="D331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4">
-      <c r="C332" t="s">
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="C333" t="s">
         <v>14</v>
       </c>
-      <c r="D332">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4">
-      <c r="B333" t="s">
+      <c r="D333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="B334" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="B334" t="s">
+    <row r="335" spans="1:5">
+      <c r="B335" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="B335" t="s">
+    <row r="336" spans="1:5">
+      <c r="B336" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336">
+    <row r="337" spans="1:5">
+      <c r="A337">
         <v>30</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B337" t="s">
         <v>46</v>
       </c>
-      <c r="C336" t="s">
-        <v>5</v>
-      </c>
-      <c r="D336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
       <c r="C337" t="s">
+        <v>5</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="C338" t="s">
         <v>6</v>
       </c>
-      <c r="D337">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
-      <c r="C338" t="s">
+      <c r="D338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="C339" t="s">
         <v>7</v>
       </c>
-      <c r="D338">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4">
-      <c r="C339" t="s">
-        <v>8</v>
-      </c>
       <c r="D339">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="C340" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340">
         <v>1.5</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="C340" t="s">
+    <row r="341" spans="1:5">
+      <c r="C341" t="s">
         <v>9</v>
       </c>
-      <c r="D340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4">
-      <c r="C341" t="s">
-        <v>10</v>
-      </c>
       <c r="D341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:4">
+      <c r="E341">
+        <f>SUM(D337:D346)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="C342" t="s">
+        <v>10</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="C343" t="s">
         <v>11</v>
       </c>
-      <c r="D342">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
-      <c r="C343" t="s">
+      <c r="D343">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="C344" t="s">
         <v>12</v>
       </c>
-      <c r="D343">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
-      <c r="C344" t="s">
+      <c r="D344">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="C345" t="s">
         <v>13</v>
       </c>
-      <c r="D344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
-      <c r="C345" t="s">
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="C346" t="s">
         <v>14</v>
       </c>
-      <c r="D345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4">
-      <c r="A346">
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347">
         <v>31</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B347" t="s">
         <v>47</v>
       </c>
-      <c r="C346" t="s">
-        <v>5</v>
-      </c>
-      <c r="D346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
       <c r="C347" t="s">
+        <v>5</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="C348" t="s">
         <v>6</v>
       </c>
-      <c r="D347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4">
-      <c r="C348" t="s">
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="C349" t="s">
         <v>7</v>
       </c>
-      <c r="D348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4">
-      <c r="C349" t="s">
-        <v>8</v>
-      </c>
       <c r="D349">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
       <c r="C350" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D350">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="351" spans="1:4">
+      <c r="E350">
+        <f>SUM(D347:D356)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
       <c r="C351" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
       <c r="C352" t="s">
+        <v>10</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="C353" t="s">
         <v>11</v>
       </c>
-      <c r="D352">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4">
-      <c r="C353" t="s">
+      <c r="D353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="C354" t="s">
         <v>12</v>
       </c>
-      <c r="D353">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
-      <c r="C354" t="s">
+      <c r="D354">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="C355" t="s">
         <v>13</v>
       </c>
-      <c r="D354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4">
-      <c r="C355" t="s">
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="C356" t="s">
         <v>14</v>
       </c>
-      <c r="D355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
-      <c r="A356">
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357">
         <v>32</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B357" t="s">
         <v>48</v>
       </c>
-      <c r="C356" t="s">
-        <v>5</v>
-      </c>
-      <c r="D356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4">
       <c r="C357" t="s">
+        <v>5</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="C358" t="s">
         <v>6</v>
       </c>
-      <c r="D357">
+      <c r="D358">
         <v>1.5</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="C358" t="s">
+    <row r="359" spans="1:5">
+      <c r="C359" t="s">
         <v>7</v>
       </c>
-      <c r="D358">
+      <c r="D359">
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="C359" t="s">
-        <v>8</v>
-      </c>
-      <c r="D359">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:5">
       <c r="C360" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="C361" t="s">
         <v>9</v>
       </c>
-      <c r="D360">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="C361" t="s">
-        <v>10</v>
-      </c>
       <c r="D361">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
       <c r="C362" t="s">
+        <v>10</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <f>SUM(D357:D366)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="C363" t="s">
         <v>11</v>
       </c>
-      <c r="D362">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4">
-      <c r="C363" t="s">
+      <c r="D363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="C364" t="s">
         <v>12</v>
       </c>
-      <c r="D363">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="C364" t="s">
+      <c r="D364">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="C365" t="s">
         <v>13</v>
       </c>
-      <c r="D364">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4">
-      <c r="C365" t="s">
+      <c r="D365">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="C366" t="s">
         <v>14</v>
       </c>
-      <c r="D365">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4">
-      <c r="B366" t="s">
+      <c r="D366">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="B367" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
-      <c r="B367" t="s">
+    <row r="368" spans="1:5">
+      <c r="B368" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="B368" t="s">
+    <row r="369" spans="1:5">
+      <c r="B369" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369">
+    <row r="370" spans="1:5">
+      <c r="A370">
         <v>33</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B370" t="s">
         <v>49</v>
       </c>
-      <c r="C369" t="s">
-        <v>5</v>
-      </c>
-      <c r="D369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
       <c r="C370" t="s">
+        <v>5</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="C371" t="s">
         <v>6</v>
       </c>
-      <c r="D370">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="C371" t="s">
+      <c r="D371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="C372" t="s">
         <v>7</v>
       </c>
-      <c r="D371">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="C372" t="s">
-        <v>8</v>
-      </c>
       <c r="D372">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="C373" t="s">
+        <v>8</v>
+      </c>
+      <c r="D373">
         <v>1.5</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
-      <c r="C373" t="s">
+    <row r="374" spans="1:5">
+      <c r="C374" t="s">
         <v>9</v>
       </c>
-      <c r="D373">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="C374" t="s">
-        <v>10</v>
-      </c>
       <c r="D374">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:5">
       <c r="C375" t="s">
+        <v>10</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="C376" t="s">
         <v>11</v>
       </c>
-      <c r="D375">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="C376" t="s">
+      <c r="D376">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="C377" t="s">
         <v>12</v>
       </c>
-      <c r="D376">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="C377" t="s">
+      <c r="D377">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="C378" t="s">
         <v>13</v>
       </c>
-      <c r="D377">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="C378" t="s">
+      <c r="D378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="C379" t="s">
         <v>14</v>
       </c>
-      <c r="D378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379">
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <f>SUM(D370:D379)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380">
         <v>34</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B380" t="s">
         <v>50</v>
       </c>
-      <c r="C379" t="s">
-        <v>5</v>
-      </c>
-      <c r="D379">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
       <c r="C380" t="s">
+        <v>5</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="C381" t="s">
         <v>6</v>
       </c>
-      <c r="D380">
+      <c r="D381">
         <v>1.5</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
-      <c r="C381" t="s">
+    <row r="382" spans="1:5">
+      <c r="C382" t="s">
         <v>7</v>
       </c>
-      <c r="D381">
+      <c r="D382">
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
-      <c r="C382" t="s">
-        <v>8</v>
-      </c>
-      <c r="D382">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:5">
       <c r="C383" t="s">
+        <v>8</v>
+      </c>
+      <c r="D383">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="C384" t="s">
         <v>9</v>
       </c>
-      <c r="D383">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="C384" t="s">
-        <v>10</v>
-      </c>
       <c r="D384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="15">
       <c r="C385" t="s">
+        <v>10</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385" s="3">
+        <f>SUM(D380:D389)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="C386" t="s">
         <v>11</v>
       </c>
-      <c r="D385">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="C386" t="s">
+      <c r="D386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="C387" t="s">
         <v>12</v>
       </c>
-      <c r="D386">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="C387" t="s">
+      <c r="D387">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="C388" t="s">
         <v>13</v>
       </c>
-      <c r="D387">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="C388" t="s">
+      <c r="D388">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="C389" t="s">
         <v>14</v>
       </c>
-      <c r="D388">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389">
+      <c r="D389">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390">
         <v>35</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B390" t="s">
         <v>51</v>
       </c>
-      <c r="C389" t="s">
-        <v>5</v>
-      </c>
-      <c r="D389">
+      <c r="C390" t="s">
+        <v>5</v>
+      </c>
+      <c r="D390">
         <v>1.5</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
-      <c r="C390" t="s">
+    <row r="391" spans="1:5">
+      <c r="C391" t="s">
         <v>6</v>
       </c>
-      <c r="D390">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="C391" t="s">
+      <c r="D391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="C392" t="s">
         <v>7</v>
       </c>
-      <c r="D391">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="C392" t="s">
-        <v>8</v>
-      </c>
       <c r="D392">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
       <c r="C393" t="s">
+        <v>8</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+      <c r="E393">
+        <f>SUM(D390:D399)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="C394" t="s">
         <v>9</v>
       </c>
-      <c r="D393">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
-      <c r="C394" t="s">
-        <v>10</v>
-      </c>
       <c r="D394">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
       <c r="C395" t="s">
+        <v>10</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="C396" t="s">
         <v>11</v>
       </c>
-      <c r="D395">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4">
-      <c r="C396" t="s">
+      <c r="D396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="C397" t="s">
         <v>12</v>
       </c>
-      <c r="D396">
+      <c r="D397">
         <v>1.5</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
-      <c r="C397" t="s">
+    <row r="398" spans="1:5">
+      <c r="C398" t="s">
         <v>13</v>
       </c>
-      <c r="D397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4">
-      <c r="C398" t="s">
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="C399" t="s">
         <v>14</v>
       </c>
-      <c r="D398">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4">
-      <c r="A399">
+      <c r="D399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400">
         <v>36</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B400" t="s">
         <v>52</v>
       </c>
-      <c r="C399" t="s">
-        <v>5</v>
-      </c>
-      <c r="D399">
+      <c r="C400" t="s">
+        <v>5</v>
+      </c>
+      <c r="D400">
         <v>1.5</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
-      <c r="C400" t="s">
+    <row r="401" spans="1:5">
+      <c r="C401" t="s">
         <v>6</v>
       </c>
-      <c r="D400">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4">
-      <c r="C401" t="s">
+      <c r="D401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="C402" t="s">
         <v>7</v>
       </c>
-      <c r="D401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4">
-      <c r="C402" t="s">
-        <v>8</v>
-      </c>
       <c r="D402">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
       <c r="C403" t="s">
+        <v>8</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="15">
+      <c r="C404" t="s">
         <v>9</v>
       </c>
-      <c r="D403">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4">
-      <c r="C404" t="s">
-        <v>10</v>
-      </c>
       <c r="D404">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E404" s="3">
+        <f>SUM(D400:D409)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
       <c r="C405" t="s">
+        <v>10</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="C406" t="s">
         <v>11</v>
       </c>
-      <c r="D405">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4">
-      <c r="C406" t="s">
+      <c r="D406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="C407" t="s">
         <v>12</v>
       </c>
-      <c r="D406">
+      <c r="D407">
         <v>1.5</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
-      <c r="C407" t="s">
+    <row r="408" spans="1:5">
+      <c r="C408" t="s">
         <v>13</v>
       </c>
-      <c r="D407">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4">
-      <c r="C408" t="s">
+      <c r="D408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="C409" t="s">
         <v>14</v>
       </c>
-      <c r="D408">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
-      <c r="B409" t="s">
+      <c r="D409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="B410" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
-      <c r="B410" t="s">
+    <row r="411" spans="1:5">
+      <c r="B411" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
-      <c r="B411" t="s">
+    <row r="412" spans="1:5">
+      <c r="B412" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
-      <c r="A412">
+    <row r="413" spans="1:5">
+      <c r="A413">
         <v>37</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B413" t="s">
         <v>53</v>
       </c>
-      <c r="C412" t="s">
-        <v>5</v>
-      </c>
-      <c r="D412">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4">
       <c r="C413" t="s">
+        <v>5</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="C414" t="s">
         <v>6</v>
       </c>
-      <c r="D413">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="C414" t="s">
+      <c r="D414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="C415" t="s">
         <v>7</v>
       </c>
-      <c r="D414">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="C415" t="s">
-        <v>8</v>
-      </c>
       <c r="D415">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
       <c r="C416" t="s">
+        <v>8</v>
+      </c>
+      <c r="D416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="C417" t="s">
         <v>9</v>
       </c>
-      <c r="D416">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="C417" t="s">
-        <v>10</v>
-      </c>
       <c r="D417">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
       <c r="C418" t="s">
+        <v>10</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418">
+        <f>SUM(D413:D422)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="C419" t="s">
         <v>11</v>
       </c>
-      <c r="D418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="C419" t="s">
+      <c r="D419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="C420" t="s">
         <v>12</v>
       </c>
-      <c r="D419">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4">
-      <c r="C420" t="s">
+      <c r="D420">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="C421" t="s">
         <v>13</v>
       </c>
-      <c r="D420">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4">
-      <c r="C421" t="s">
+      <c r="D421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="C422" t="s">
         <v>14</v>
       </c>
-      <c r="D421">
+      <c r="D422">
         <v>1.5</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="A422">
+    <row r="423" spans="1:5">
+      <c r="A423">
         <v>38</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B423" t="s">
         <v>54</v>
       </c>
-      <c r="C422" t="s">
-        <v>5</v>
-      </c>
-      <c r="D422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
       <c r="C423" t="s">
+        <v>5</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="C424" t="s">
         <v>6</v>
       </c>
-      <c r="D423">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
-      <c r="C424" t="s">
+      <c r="D424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="C425" t="s">
         <v>7</v>
       </c>
-      <c r="D424">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="C425" t="s">
-        <v>8</v>
-      </c>
       <c r="D425">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
       <c r="C426" t="s">
+        <v>8</v>
+      </c>
+      <c r="D426">
+        <v>2</v>
+      </c>
+      <c r="E426">
+        <f>SUM(D423:D432)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="C427" t="s">
         <v>9</v>
       </c>
-      <c r="D426">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="C427" t="s">
-        <v>10</v>
-      </c>
       <c r="D427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
       <c r="C428" t="s">
+        <v>10</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="C429" t="s">
         <v>11</v>
       </c>
-      <c r="D428">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4">
-      <c r="C429" t="s">
+      <c r="D429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="C430" t="s">
         <v>12</v>
       </c>
-      <c r="D429">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
-      <c r="C430" t="s">
+      <c r="D430">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="C431" t="s">
         <v>13</v>
       </c>
-      <c r="D430">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="C431" t="s">
+      <c r="D431">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="C432" t="s">
         <v>14</v>
       </c>
-      <c r="D431">
+      <c r="D432">
         <v>1.5</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432">
+    <row r="433" spans="1:5">
+      <c r="A433">
         <v>39</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B433" t="s">
         <v>55</v>
       </c>
-      <c r="C432" t="s">
-        <v>5</v>
-      </c>
-      <c r="D432">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="433" spans="3:4">
       <c r="C433" t="s">
+        <v>5</v>
+      </c>
+      <c r="D433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="C434" t="s">
         <v>6</v>
       </c>
-      <c r="D433">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="434" spans="3:4">
-      <c r="C434" t="s">
+      <c r="D434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="C435" t="s">
         <v>7</v>
       </c>
-      <c r="D434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="3:4">
-      <c r="C435" t="s">
-        <v>8</v>
-      </c>
       <c r="D435">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="436" spans="3:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
       <c r="C436" t="s">
+        <v>8</v>
+      </c>
+      <c r="D436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="C437" t="s">
         <v>9</v>
       </c>
-      <c r="D436">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="437" spans="3:4">
-      <c r="C437" t="s">
-        <v>10</v>
-      </c>
       <c r="D437">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="3:4">
+        <v>2</v>
+      </c>
+      <c r="E437">
+        <f>SUM(D433:D442)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
       <c r="C438" t="s">
+        <v>10</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="C439" t="s">
         <v>11</v>
       </c>
-      <c r="D438">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="439" spans="3:4">
-      <c r="C439" t="s">
+      <c r="D439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="C440" t="s">
         <v>12</v>
       </c>
-      <c r="D439">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="440" spans="3:4">
-      <c r="C440" t="s">
+      <c r="D440">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="C441" t="s">
         <v>13</v>
       </c>
-      <c r="D440">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="3:4">
-      <c r="C441" t="s">
+      <c r="D441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="C442" t="s">
         <v>14</v>
       </c>
-      <c r="D441">
+      <c r="D442">
         <v>1.5</v>
       </c>
     </row>
-    <row r="444" spans="3:4">
-      <c r="C444" t="s">
+    <row r="445" spans="1:5">
+      <c r="C445" t="s">
         <v>56</v>
       </c>
-      <c r="D444">
-        <f>SUM(D2:D441)</f>
+      <c r="D445">
+        <f>SUM(D2:D442)</f>
         <v>586.4</v>
       </c>
     </row>
-    <row r="445" spans="3:4">
-      <c r="C445" t="s">
+    <row r="446" spans="1:5">
+      <c r="C446" t="s">
         <v>57</v>
       </c>
-      <c r="D445">
+      <c r="D446">
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="3:4">
-      <c r="C448" s="2" t="s">
+    <row r="449" spans="3:4">
+      <c r="C449" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D448" s="2">
+      <c r="D449" s="2">
         <v>606.4</v>
       </c>
     </row>
